--- a/resource/40.design/440.development/[Saturn]449crawling_insert/18두뇌및기억력.xlsx
+++ b/resource/40.design/440.development/[Saturn]449crawling_insert/18두뇌및기억력.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\40.design\440.development\[Saturn]449crawling_insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" tabRatio="745"/>
   </bookViews>
   <sheets>
     <sheet name="TB_SLE" sheetId="6" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G12"/>
+      <selection activeCell="P3" sqref="P3:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -755,10 +755,10 @@
     </row>
     <row r="3" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6">
-        <v>343</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="I3" s="11">
         <f ca="1">RANDBETWEEN(1, 5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="str">
         <f ca="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>23</v>
@@ -800,15 +800,15 @@
       </c>
       <c r="P3" s="4" t="str">
         <f ca="1">"INSERT INTO TB_SLE VALUES (" &amp; B3 &amp; ", " &amp; C3 &amp; ", '"&amp; D3 &amp; "', '"&amp; E3 &amp; "', '"&amp; F3 &amp; "', "&amp; G3 &amp; ", '"&amp; H3 &amp; "', '" &amp; I3 &amp; "', " &amp; J3 &amp; ", " &amp; K3 &amp; ",  " &amp; L3 &amp; ", " &amp; M3 &amp; ", " &amp; N3 &amp; ", " &amp; O3 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (343, 343, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 12, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (169, 169, '노르딕내추럴스 오메가3 레몬향 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000965/1000000965_main_010.jpg', 45000, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 5, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="C4" s="6">
-        <v>344</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -827,11 +827,11 @@
       </c>
       <c r="I4" s="11">
         <f t="shared" ref="I4:I12" ca="1" si="0">RANDBETWEEN(1, 5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3" t="str">
         <f t="shared" ref="J4:J12" ca="1" si="1">"TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - " &amp; RANDBETWEEN(0, 30) &amp; ", 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')"</f>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -850,15 +850,15 @@
       </c>
       <c r="P4" s="4" t="str">
         <f t="shared" ref="P4:P12" ca="1" si="2">"INSERT INTO TB_SLE VALUES (" &amp; B4 &amp; ", " &amp; C4 &amp; ", '"&amp; D4 &amp; "', '"&amp; E4 &amp; "', '"&amp; F4 &amp; "', "&amp; G4 &amp; ", '"&amp; H4 &amp; "', '" &amp; I4 &amp; "', " &amp; J4 &amp; ", " &amp; K4 &amp; ",  " &amp; L4 &amp; ", " &amp; M4 &amp; ", " &amp; N4 &amp; ", " &amp; O4 &amp; "); "</f>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (344, 344, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 11, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (170, 170, '솔가 EFA 1300mg 오메가 3 6 9 120소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/08/1000000867/1000000867_main_091.jpg', 36800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="C5" s="6">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
         <v>38</v>
@@ -877,11 +877,11 @@
       </c>
       <c r="I5" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>23</v>
@@ -900,15 +900,15 @@
       </c>
       <c r="P5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (345, 345, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (171, 171, '솔가 오메가3 피쉬오일 콘센트레이트 240소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/14/06/20/1000000175/1000000175_main_01.jpg', 20070, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="C6" s="6">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -927,11 +927,11 @@
       </c>
       <c r="I6" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -950,15 +950,15 @@
       </c>
       <c r="P6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (346, 346, '노르딕내추럴스 어린이 DHA 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 6, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (172, 172, '노르딕내추럴스 어린이 DHA 180 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/10/01/1000000994/1000000994_main_045.jpg', 25800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 19, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -977,11 +977,11 @@
       </c>
       <c r="I7" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>23</v>
@@ -1000,15 +1000,15 @@
       </c>
       <c r="P7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (347, 347, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '1', '1', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 10, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (173, 173, '노르딕내추럴스 얼티메이트 오메가 D3 레몬향 60 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000968/1000000968_main_049.jpg', 30000, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 14, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="C8" s="6">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>23</v>
@@ -1050,15 +1050,15 @@
       </c>
       <c r="P8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (348, 348, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 2, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (174, 174, '노르딕내추럴스 오메가3 레몬향 120 소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/09/17/1000000964/1000000964_main_027.jpg', 31000, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 25, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="C9" s="6">
-        <v>349</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
         <v>42</v>
@@ -1077,11 +1077,11 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>23</v>
@@ -1100,15 +1100,15 @@
       </c>
       <c r="P9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (349, 349, '소스내추럴스 웰니스 포뮬러 허벌 디펜스 컴플렉스 240캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002773/1000002773_main_039.jpg', 48900, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (175, 175, '소스내추럴스 웰니스 포뮬러 허벌 디펜스 컴플렉스 240캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/21/02/07/1000002773/1000002773_main_039.jpg', 48900, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 17, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
-        <v>350</v>
+        <v>176</v>
       </c>
       <c r="C10" s="6">
-        <v>350</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1127,11 +1127,11 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
@@ -1150,15 +1150,15 @@
       </c>
       <c r="P10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (350, 350, '솔가 아세틸 L-카르니틴 250mg 30식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001999/1000001999_main_04.jpg', 9800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 0, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (176, 176, '솔가 아세틸 L-카르니틴 250mg 30식물성캡슐', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/18/08/34/1000001999/1000001999_main_04.jpg', 9800, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="C11" s="6">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -1177,11 +1177,11 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
@@ -1200,15 +1200,15 @@
       </c>
       <c r="P11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (351, 351, '컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000423/1000000423_main_096.jpg', 17500, '1', '3', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 18, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (177, 177, '컨트리라이프 오메가3 피쉬오일 1,000mg 100소프트겔', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/06/01/1000000423/1000000423_main_096.jpg', 17500, '1', '2', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 3, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="C12" s="6">
-        <v>352</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -1227,11 +1227,11 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
+        <v>TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS')</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>23</v>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="P12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (352, 352, '나우푸드 오메가3 1000mg 200피쉬소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000769/1000000769_main_058.jpg', 17800, '1', '5', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 28, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
+        <v xml:space="preserve">INSERT INTO TB_SLE VALUES (178, 178, '나우푸드 오메가3 1000mg 200피쉬소프트젤', '문자열', 'https://cdn-pro-web-220-151.cdn-nhncommerce.com/nutri2tr3071_godomall_com/data/goods/15/07/06/1000000769/1000000769_main_058.jpg', 17800, '1', '4', TO_DATE(TO_CHAR(ADD_MONTHS(SYSDATE, -24) - 20, 'YYYY-MM-DD'), 'YYYY-MM-DD HH24:MI:SS'), TO_DATE('9999-12-31 23:59:59', 'YYYY-MM-DD HH24:MI:SS'),  SYSDATE, 1, NULL, NULL); </v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
